--- a/UseCase R1.xlsx
+++ b/UseCase R1.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="10515" windowHeight="4695"/>
+    <workbookView xWindow="480" yWindow="108" windowWidth="10512" windowHeight="4692"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>Login</t>
   </si>
@@ -27,95 +27,104 @@
     <t>Registration</t>
   </si>
   <si>
-    <t>Details of Part and Products (Department)</t>
-  </si>
-  <si>
     <t>Confirms Dispatch</t>
   </si>
   <si>
-    <t>Plant Manager(1)</t>
-  </si>
-  <si>
-    <t>Stores(2)</t>
-  </si>
-  <si>
     <t>Ordering Raw Material</t>
   </si>
   <si>
-    <t>Forward  material to Production, Assembly and Vendor</t>
-  </si>
-  <si>
     <t>Update Stock of the material</t>
   </si>
   <si>
-    <t>Production(3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update Machine list </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update Part list </t>
-  </si>
-  <si>
-    <t>Plans the maufacturing task</t>
-  </si>
-  <si>
-    <t>Daily production report</t>
-  </si>
-  <si>
-    <t>Forwards data to Manager and Quality</t>
-  </si>
-  <si>
-    <t>Forward  material to Production, Manager</t>
-  </si>
-  <si>
-    <t>Vendor(4)</t>
-  </si>
-  <si>
-    <t>Manufacturing and Updating quatity of parts</t>
-  </si>
-  <si>
-    <t>Updatoing data and sending to Store</t>
-  </si>
-  <si>
-    <t>Assembly and Quality(5)</t>
-  </si>
-  <si>
-    <t>Inspection report by Quality</t>
-  </si>
-  <si>
-    <t>Update data and sent to manager and dispatch</t>
-  </si>
-  <si>
-    <t>Report of assmebled parts</t>
-  </si>
-  <si>
-    <t>Dispatch(6)</t>
-  </si>
-  <si>
-    <t>Approves material from stores,production</t>
-  </si>
-  <si>
-    <t>Approves material from store</t>
-  </si>
-  <si>
     <t>Recieves material from Vendors</t>
   </si>
   <si>
-    <t>Approves material from Q&amp;A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sents FDR to Manager </t>
-  </si>
-  <si>
-    <t>Dispatch Done</t>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>New Order</t>
+  </si>
+  <si>
+    <t>Check Department Status</t>
+  </si>
+  <si>
+    <t>Approve Password Recovery</t>
+  </si>
+  <si>
+    <t>Check Status of Raw Material</t>
+  </si>
+  <si>
+    <t>Recieves material from Storage</t>
+  </si>
+  <si>
+    <t>Forward  Parts to Assembly</t>
+  </si>
+  <si>
+    <t>Recieves material from store</t>
+  </si>
+  <si>
+    <t>Gives estimated time of delivery</t>
+  </si>
+  <si>
+    <t>Plans the daily task</t>
+  </si>
+  <si>
+    <t>Sends final draft to manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final Dispatch </t>
+  </si>
+  <si>
+    <t>Forward  Parts to Dispatch</t>
+  </si>
+  <si>
+    <t>Recieves Parts from Production</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Stores</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>Dispatch</t>
+  </si>
+  <si>
+    <t>Accept new request</t>
+  </si>
+  <si>
+    <t>Update process status</t>
+  </si>
+  <si>
+    <t>Create new user</t>
+  </si>
+  <si>
+    <t>Password recovery</t>
+  </si>
+  <si>
+    <t>Check status of user</t>
+  </si>
+  <si>
+    <t>Forward  material to Production/vender</t>
+  </si>
+  <si>
+    <t>Assembly/Quality</t>
+  </si>
+  <si>
+    <t>Recieves products from quality</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,15 +146,21 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -168,25 +183,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -194,11 +226,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -289,7 +338,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -324,7 +372,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -500,314 +547,372 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:E50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="D7:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46:E50"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="4.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="4.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D7" s="5" t="s">
+    <row r="7" spans="4:5">
+      <c r="D7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="4:5">
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5">
+      <c r="D9" s="8">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5">
+      <c r="D10" s="8">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5">
+      <c r="D11" s="8">
+        <v>4</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5">
+      <c r="D12" s="8">
         <v>5</v>
       </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D8" s="6">
+      <c r="E12" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5">
+      <c r="D13" s="8">
+        <v>6</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5">
+      <c r="D14" s="8">
+        <v>7</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="4:5">
+      <c r="D16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="4:5">
+      <c r="D17" s="12">
         <v>1</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E17" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D9" s="6">
+    <row r="18" spans="4:5">
+      <c r="D18" s="8">
         <v>2</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E18" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" ht="14.4" customHeight="1">
+      <c r="D19" s="8">
+        <v>3</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" ht="13.8" customHeight="1">
+      <c r="D20" s="12">
+        <v>4</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" ht="16.2" customHeight="1">
+      <c r="D21" s="12">
+        <v>5</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" ht="27.6" customHeight="1">
+      <c r="D22" s="8">
+        <v>6</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5">
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="4:5">
+      <c r="D24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="4:5">
+      <c r="D25" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D10" s="6">
+      <c r="E25" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5">
+      <c r="D26" s="12">
+        <v>2</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5">
+      <c r="D27" s="12">
         <v>3</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E27" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5">
+      <c r="D28" s="12">
+        <v>4</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5">
+      <c r="D31" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="4:5">
+      <c r="D32" s="12">
+        <v>1</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5">
+      <c r="D33" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="4:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="D11" s="6">
+      <c r="E33" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5">
+      <c r="D34" s="12">
+        <v>3</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5">
+      <c r="D35" s="12">
         <v>4</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E35" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5">
+      <c r="D38" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="4:5">
+      <c r="D39" s="12">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="4:5">
+      <c r="D40" s="12">
+        <v>2</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="4:5">
+      <c r="D41" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D12" s="6">
+      <c r="E41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="4:5">
+      <c r="D42" s="12">
+        <v>4</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="4:5">
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+    </row>
+    <row r="44" spans="4:5">
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+    </row>
+    <row r="45" spans="4:5">
+      <c r="D45" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" s="10"/>
+    </row>
+    <row r="46" spans="4:5">
+      <c r="D46" s="12">
+        <v>1</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="4:5">
+      <c r="D47" s="12">
+        <v>2</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="4:5">
+      <c r="D48" s="12">
+        <v>3</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5">
+      <c r="D49" s="12">
+        <v>4</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5">
+      <c r="D50" s="12">
         <v>5</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E50" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="4:5">
+      <c r="D52" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="6"/>
+    </row>
+    <row r="53" spans="4:5">
+      <c r="D53" s="12">
+        <v>1</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="4:5">
+      <c r="D54" s="12">
+        <v>2</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="4:5">
+      <c r="D55" s="12">
+        <v>3</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="4:5">
+      <c r="D56" s="12">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D14" s="5" t="s">
+      <c r="E56" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="4:5">
+      <c r="D57" s="12">
+        <v>5</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="4:5">
+      <c r="D58" s="12">
         <v>6</v>
       </c>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D15" s="9">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D16" s="6">
-        <v>2</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="D17" s="9">
-        <v>3</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="D18" s="6">
-        <v>4</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="9">
-        <v>5</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="6">
-        <v>6</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D22" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D23" s="9">
-        <v>1</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D24" s="3">
-        <v>2</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D25" s="9">
-        <v>3</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="4:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="D26" s="3">
-        <v>4</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D27" s="9">
-        <v>5</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="4:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="D28" s="3">
-        <v>6</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D31" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D32" s="9">
-        <v>1</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="4:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="D33" s="3">
-        <v>2</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="4:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="D34" s="9">
-        <v>3</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="4:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="D35" s="3">
-        <v>4</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D38" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E38" s="5"/>
-    </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D39" s="3">
-        <v>1</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="4:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="D40" s="3">
-        <v>2</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="4:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="D41" s="3">
-        <v>3</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="4:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="D42" s="3">
-        <v>4</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="4:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="D43" s="3">
-        <v>5</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-    </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D46" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E46" s="5"/>
-    </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D47" s="3">
-        <v>1</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="4:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="D48" s="3">
-        <v>2</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D49" s="3">
-        <v>3</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D50" s="3">
-        <v>4</v>
-      </c>
-      <c r="E50" s="3" t="s">
+      <c r="E58" s="2" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="D52:E52"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
     <mergeCell ref="D31:E31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -816,24 +921,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/UseCase R1.xlsx
+++ b/UseCase R1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>Login</t>
   </si>
@@ -27,9 +27,6 @@
     <t>Registration</t>
   </si>
   <si>
-    <t>Confirms Dispatch</t>
-  </si>
-  <si>
     <t>Ordering Raw Material</t>
   </si>
   <si>
@@ -45,9 +42,6 @@
     <t>New Order</t>
   </si>
   <si>
-    <t>Check Department Status</t>
-  </si>
-  <si>
     <t>Approve Password Recovery</t>
   </si>
   <si>
@@ -118,6 +112,15 @@
   </si>
   <si>
     <t>Recieves products from quality</t>
+  </si>
+  <si>
+    <t>Check Order Quantity Status</t>
+  </si>
+  <si>
+    <t>Confirms Dispatch Batch</t>
+  </si>
+  <si>
+    <t>In here Manager will be able to track quantity of that order with respect of every department.</t>
   </si>
 </sst>
 </file>
@@ -146,7 +149,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,6 +159,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -213,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -226,20 +235,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -249,6 +246,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D7:E58"/>
+  <dimension ref="D7:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="C8" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F22" activeCellId="1" sqref="F18 F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
@@ -559,79 +569,83 @@
     <col min="1" max="3" width="9.109375" style="1"/>
     <col min="4" max="4" width="4.88671875" style="1" customWidth="1"/>
     <col min="5" max="5" width="29.33203125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="1"/>
+    <col min="6" max="6" width="98.33203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:5">
-      <c r="D7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="4:5">
-      <c r="D8" s="8">
+    <row r="7" spans="4:6">
+      <c r="D7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="4:6">
+      <c r="D8" s="6">
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:5">
-      <c r="D9" s="8">
+    <row r="9" spans="4:6">
+      <c r="D9" s="6">
         <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="4:5">
-      <c r="D10" s="8">
+    <row r="10" spans="4:6">
+      <c r="D10" s="6">
         <v>3</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="4:5">
-      <c r="D11" s="8">
+    <row r="11" spans="4:6">
+      <c r="D11" s="6">
         <v>4</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6">
+      <c r="D12" s="6">
+        <v>5</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6">
+      <c r="D13" s="6">
+        <v>6</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="4:5">
-      <c r="D12" s="8">
-        <v>5</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="4:5">
-      <c r="D13" s="8">
-        <v>6</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="4:5">
-      <c r="D14" s="8">
+    <row r="14" spans="4:6">
+      <c r="D14" s="6">
         <v>7</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="4:5">
-      <c r="D16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="6"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="4:6">
+      <c r="D16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="11"/>
     </row>
     <row r="17" spans="4:5">
-      <c r="D17" s="12">
+      <c r="D17" s="8">
         <v>1</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -639,57 +653,57 @@
       </c>
     </row>
     <row r="18" spans="4:5">
-      <c r="D18" s="8">
+      <c r="D18" s="6">
         <v>2</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" ht="14.4" customHeight="1">
+      <c r="D19" s="6">
+        <v>3</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" ht="13.8" customHeight="1">
+      <c r="D20" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="4:5" ht="14.4" customHeight="1">
-      <c r="D19" s="8">
-        <v>3</v>
-      </c>
-      <c r="E19" s="3" t="s">
+      <c r="E20" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" ht="16.2" customHeight="1">
+      <c r="D21" s="8">
+        <v>5</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" ht="27.6" customHeight="1">
+      <c r="D22" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="4:5" ht="13.8" customHeight="1">
-      <c r="D20" s="12">
-        <v>4</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="4:5" ht="16.2" customHeight="1">
-      <c r="D21" s="12">
-        <v>5</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="4:5" ht="27.6" customHeight="1">
-      <c r="D22" s="8">
-        <v>6</v>
-      </c>
       <c r="E22" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="4:5">
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
     </row>
     <row r="24" spans="4:5">
-      <c r="D24" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="6"/>
+      <c r="D24" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="11"/>
     </row>
     <row r="25" spans="4:5">
-      <c r="D25" s="12">
+      <c r="D25" s="8">
         <v>1</v>
       </c>
       <c r="E25" s="5" t="s">
@@ -697,37 +711,37 @@
       </c>
     </row>
     <row r="26" spans="4:5">
-      <c r="D26" s="12">
+      <c r="D26" s="8">
         <v>2</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="4:5">
-      <c r="D27" s="12">
+      <c r="D27" s="8">
         <v>3</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="4:5">
-      <c r="D28" s="12">
+      <c r="D28" s="8">
         <v>4</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="4:5">
-      <c r="D31" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="6"/>
+      <c r="D31" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="11"/>
     </row>
     <row r="32" spans="4:5">
-      <c r="D32" s="12">
+      <c r="D32" s="8">
         <v>1</v>
       </c>
       <c r="E32" s="5" t="s">
@@ -735,37 +749,37 @@
       </c>
     </row>
     <row r="33" spans="4:5">
-      <c r="D33" s="12">
+      <c r="D33" s="8">
         <v>2</v>
       </c>
-      <c r="E33" s="14" t="s">
-        <v>15</v>
+      <c r="E33" s="10" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="4:5">
-      <c r="D34" s="12">
+      <c r="D34" s="8">
         <v>3</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="4:5">
-      <c r="D35" s="12">
+      <c r="D35" s="8">
         <v>4</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="4:5">
-      <c r="D38" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E38" s="6"/>
+      <c r="D38" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="11"/>
     </row>
     <row r="39" spans="4:5">
-      <c r="D39" s="12">
+      <c r="D39" s="8">
         <v>1</v>
       </c>
       <c r="E39" s="2" t="s">
@@ -773,45 +787,45 @@
       </c>
     </row>
     <row r="40" spans="4:5">
-      <c r="D40" s="12">
+      <c r="D40" s="8">
         <v>2</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="4:5">
-      <c r="D41" s="12">
+      <c r="D41" s="8">
         <v>3</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="4:5">
-      <c r="D42" s="12">
+      <c r="D42" s="8">
         <v>4</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="4:5">
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
     </row>
     <row r="44" spans="4:5">
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
     </row>
     <row r="45" spans="4:5">
-      <c r="D45" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E45" s="10"/>
+      <c r="D45" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="13"/>
     </row>
     <row r="46" spans="4:5">
-      <c r="D46" s="12">
+      <c r="D46" s="8">
         <v>1</v>
       </c>
       <c r="E46" s="2" t="s">
@@ -819,45 +833,45 @@
       </c>
     </row>
     <row r="47" spans="4:5">
-      <c r="D47" s="12">
+      <c r="D47" s="8">
         <v>2</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="4:5">
-      <c r="D48" s="12">
+      <c r="D48" s="8">
         <v>3</v>
       </c>
       <c r="E48" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5">
+      <c r="D49" s="8">
+        <v>4</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5">
+      <c r="D50" s="8">
+        <v>5</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="4:5">
-      <c r="D49" s="12">
-        <v>4</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="4:5">
-      <c r="D50" s="12">
-        <v>5</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
     <row r="52" spans="4:5">
-      <c r="D52" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" s="6"/>
+      <c r="D52" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="11"/>
     </row>
     <row r="53" spans="4:5">
-      <c r="D53" s="12">
+      <c r="D53" s="8">
         <v>1</v>
       </c>
       <c r="E53" s="2" t="s">
@@ -865,43 +879,43 @@
       </c>
     </row>
     <row r="54" spans="4:5">
-      <c r="D54" s="12">
+      <c r="D54" s="8">
         <v>2</v>
       </c>
       <c r="E54" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="4:5">
+      <c r="D55" s="8">
+        <v>3</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="4:5">
+      <c r="D56" s="8">
+        <v>4</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="4:5">
-      <c r="D55" s="12">
-        <v>3</v>
-      </c>
-      <c r="E55" s="2" t="s">
+    <row r="57" spans="4:5">
+      <c r="D57" s="8">
+        <v>5</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="4:5">
-      <c r="D56" s="12">
-        <v>4</v>
-      </c>
-      <c r="E56" s="2" t="s">
+    <row r="58" spans="4:5">
+      <c r="D58" s="8">
+        <v>6</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="57" spans="4:5">
-      <c r="D57" s="12">
-        <v>5</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="58" spans="4:5">
-      <c r="D58" s="12">
-        <v>6</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
